--- a/biology/Zoologie/Colobus_vellerosus/Colobus_vellerosus.xlsx
+++ b/biology/Zoologie/Colobus_vellerosus/Colobus_vellerosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colobe magistrat
-Colobus vellerosus est une espèce qui fait partie des mammifères Primates. C’est un singe de la famille des Cercopithecidae, appelé en français Colobe magistrat[1] tout comme l'espèce très voisine, Colobus polykomos, à laquelle il est parfois assimilé ou aussi Colobe de Geoffroy. Ce colobe est une espèce vulnérable.
+Colobus vellerosus est une espèce qui fait partie des mammifères Primates. C’est un singe de la famille des Cercopithecidae, appelé en français Colobe magistrat tout comme l'espèce très voisine, Colobus polykomos, à laquelle il est parfois assimilé ou aussi Colobe de Geoffroy. Ce colobe est une espèce vulnérable.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce singe, comme tous les colobus, est reconnaissable à sa fourrure noir et blanc. Le jeune colobe est totalement blanc à la naissance.
 Il a, comme tous les colobinés et comme les vaches, un estomac particulier divisé en plusieurs poches pour digérer les feuilles, base de son alimentation. Il vit en groupe de dix à cent individus et plus.
-Il mesure de 61 à 66 cm, a une queue de 75 à 81 cm et pèse de 8,3 à 19,9 kg[2].
+Il mesure de 61 à 66 cm, a une queue de 75 à 81 cm et pèse de 8,3 à 19,9 kg.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce singe a été intensément chassé car sa fourrure est très recherchée pour la confection de manteaux.
 Le colobe de Geoffroy est une des 16 espèces de primates d'Afrique qui a été incluse entre 2000 et 2020 dans la liste des 25 primates les plus menacés au monde (depuis 2016 : 2016 ; 2018).
